--- a/Code/Results/Cases/Case_0_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003288479147767</v>
+        <v>1.064850662639623</v>
       </c>
       <c r="D2">
-        <v>1.01163152738202</v>
+        <v>1.067496491402062</v>
       </c>
       <c r="E2">
-        <v>1.01466412429509</v>
+        <v>1.069373432351804</v>
       </c>
       <c r="F2">
-        <v>1.017407740274483</v>
+        <v>1.078631132388632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042994078881109</v>
+        <v>1.040942000987361</v>
       </c>
       <c r="J2">
-        <v>1.025371275285617</v>
+        <v>1.069808788005184</v>
       </c>
       <c r="K2">
-        <v>1.022931160469158</v>
+        <v>1.070204197677716</v>
       </c>
       <c r="L2">
-        <v>1.025922875941214</v>
+        <v>1.072076112540631</v>
       </c>
       <c r="M2">
-        <v>1.028629769833174</v>
+        <v>1.081309298727051</v>
       </c>
       <c r="N2">
-        <v>1.026827420108251</v>
+        <v>1.071328039192935</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013059980331976</v>
+        <v>1.066690141083253</v>
       </c>
       <c r="D3">
-        <v>1.020720531413317</v>
+        <v>1.06925374974298</v>
       </c>
       <c r="E3">
-        <v>1.023354803571816</v>
+        <v>1.071058848150994</v>
       </c>
       <c r="F3">
-        <v>1.026962896980266</v>
+        <v>1.080508516253083</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045587744853927</v>
+        <v>1.041318684544749</v>
       </c>
       <c r="J3">
-        <v>1.03320083982043</v>
+        <v>1.071299427179064</v>
       </c>
       <c r="K3">
-        <v>1.031094979802279</v>
+        <v>1.071774910914318</v>
       </c>
       <c r="L3">
-        <v>1.033697327859518</v>
+        <v>1.073575531931038</v>
       </c>
       <c r="M3">
-        <v>1.037262025386811</v>
+        <v>1.083002023489604</v>
       </c>
       <c r="N3">
-        <v>1.034668103522768</v>
+        <v>1.07282079524542</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0191423685468</v>
+        <v>1.067876923370908</v>
       </c>
       <c r="D4">
-        <v>1.026383531794385</v>
+        <v>1.070387654884151</v>
       </c>
       <c r="E4">
-        <v>1.028771001089682</v>
+        <v>1.072146411900874</v>
       </c>
       <c r="F4">
-        <v>1.032920559425083</v>
+        <v>1.081720454628794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04718619645455</v>
+        <v>1.041559635488666</v>
       </c>
       <c r="J4">
-        <v>1.038068769821741</v>
+        <v>1.072260206516456</v>
       </c>
       <c r="K4">
-        <v>1.036173626714698</v>
+        <v>1.07278765814295</v>
       </c>
       <c r="L4">
-        <v>1.038534156481605</v>
+        <v>1.074542276373316</v>
       </c>
       <c r="M4">
-        <v>1.042637257018972</v>
+        <v>1.084094042076517</v>
       </c>
       <c r="N4">
-        <v>1.039542946543039</v>
+        <v>1.073782938999674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021646007018402</v>
+        <v>1.068375030861913</v>
       </c>
       <c r="D5">
-        <v>1.028715741499758</v>
+        <v>1.070863608954309</v>
       </c>
       <c r="E5">
-        <v>1.031001876765839</v>
+        <v>1.072602918080968</v>
       </c>
       <c r="F5">
-        <v>1.035375142580055</v>
+        <v>1.082229287562106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047840227372891</v>
+        <v>1.041660268209831</v>
       </c>
       <c r="J5">
-        <v>1.040071062376699</v>
+        <v>1.072663231883842</v>
       </c>
       <c r="K5">
-        <v>1.038263287419753</v>
+        <v>1.073212568360176</v>
       </c>
       <c r="L5">
-        <v>1.040524406054122</v>
+        <v>1.07494787722822</v>
       </c>
       <c r="M5">
-        <v>1.044850193728417</v>
+        <v>1.08455235584127</v>
       </c>
       <c r="N5">
-        <v>1.041548082583092</v>
+        <v>1.07418653670931</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022063359938051</v>
+        <v>1.068458617986612</v>
       </c>
       <c r="D6">
-        <v>1.029104585231119</v>
+        <v>1.070943480839869</v>
       </c>
       <c r="E6">
-        <v>1.031373842786339</v>
+        <v>1.072679526552387</v>
       </c>
       <c r="F6">
-        <v>1.03578444972931</v>
+        <v>1.08231468430127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047949020077096</v>
+        <v>1.041677126134903</v>
       </c>
       <c r="J6">
-        <v>1.040404753979257</v>
+        <v>1.07273085007296</v>
       </c>
       <c r="K6">
-        <v>1.038611580268115</v>
+        <v>1.073283863329125</v>
       </c>
       <c r="L6">
-        <v>1.040856134506779</v>
+        <v>1.075015931821617</v>
       </c>
       <c r="M6">
-        <v>1.045219106741017</v>
+        <v>1.084629264003469</v>
       </c>
       <c r="N6">
-        <v>1.041882248066001</v>
+        <v>1.074254250924011</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01917602695286</v>
+        <v>1.067883582288373</v>
       </c>
       <c r="D7">
-        <v>1.026414880920842</v>
+        <v>1.070394017489546</v>
       </c>
       <c r="E7">
-        <v>1.028800986912789</v>
+        <v>1.07215251450999</v>
       </c>
       <c r="F7">
-        <v>1.032953549409736</v>
+        <v>1.081727256272372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047195004783524</v>
+        <v>1.041560982747159</v>
       </c>
       <c r="J7">
-        <v>1.038095694091943</v>
+        <v>1.072265595223345</v>
       </c>
       <c r="K7">
-        <v>1.036201723041866</v>
+        <v>1.07279333912801</v>
       </c>
       <c r="L7">
-        <v>1.038560915851142</v>
+        <v>1.07454769922798</v>
       </c>
       <c r="M7">
-        <v>1.04266700590881</v>
+        <v>1.084100169094303</v>
       </c>
       <c r="N7">
-        <v>1.039569909048794</v>
+        <v>1.073788335359145</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006643247680888</v>
+        <v>1.065473055183416</v>
       </c>
       <c r="D8">
-        <v>1.014750755793451</v>
+        <v>1.068091029057123</v>
       </c>
       <c r="E8">
-        <v>1.017646345394414</v>
+        <v>1.069943659858505</v>
       </c>
       <c r="F8">
-        <v>1.020686056582718</v>
+        <v>1.079266204637007</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043887884701118</v>
+        <v>1.041069883072758</v>
       </c>
       <c r="J8">
-        <v>1.028060482952968</v>
+        <v>1.070313344791904</v>
       </c>
       <c r="K8">
-        <v>1.025734558095587</v>
+        <v>1.070735784175842</v>
       </c>
       <c r="L8">
-        <v>1.028592475454915</v>
+        <v>1.072583577796671</v>
       </c>
       <c r="M8">
-        <v>1.031592926964837</v>
+        <v>1.081882053481569</v>
       </c>
       <c r="N8">
-        <v>1.029520446758946</v>
+        <v>1.071833312508165</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9825006944815531</v>
+        <v>1.061197903181685</v>
       </c>
       <c r="D9">
-        <v>0.9923324341889058</v>
+        <v>1.064007933972077</v>
       </c>
       <c r="E9">
-        <v>0.996219922002954</v>
+        <v>1.066027591769108</v>
       </c>
       <c r="F9">
-        <v>0.9971424891072502</v>
+        <v>1.074906869038383</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037389096266383</v>
+        <v>1.040182941664778</v>
       </c>
       <c r="J9">
-        <v>1.008686900836335</v>
+        <v>1.066843734370953</v>
       </c>
       <c r="K9">
-        <v>1.005551149458052</v>
+        <v>1.067081773952819</v>
       </c>
       <c r="L9">
-        <v>1.009374627508158</v>
+        <v>1.069095229634702</v>
       </c>
       <c r="M9">
-        <v>1.010282098188935</v>
+        <v>1.077947541161576</v>
       </c>
       <c r="N9">
-        <v>1.010119351933528</v>
+        <v>1.068358774842446</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9646591678821271</v>
+        <v>1.058328166271141</v>
       </c>
       <c r="D10">
-        <v>0.9758100723967643</v>
+        <v>1.061268058135115</v>
       </c>
       <c r="E10">
-        <v>0.9804395316907908</v>
+        <v>1.063399892739871</v>
       </c>
       <c r="F10">
-        <v>0.9798137734226534</v>
+        <v>1.071984313050985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03250548480498</v>
+        <v>1.039576862496118</v>
       </c>
       <c r="J10">
-        <v>0.9943486744960557</v>
+        <v>1.064509888528414</v>
       </c>
       <c r="K10">
-        <v>0.9906302644106906</v>
+        <v>1.06462574136022</v>
       </c>
       <c r="L10">
-        <v>0.9951711717124219</v>
+        <v>1.066750368730747</v>
       </c>
       <c r="M10">
-        <v>0.9945573189334089</v>
+        <v>1.075306085550962</v>
       </c>
       <c r="N10">
-        <v>0.9957607636672272</v>
+        <v>1.066021614671115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9564154344653935</v>
+        <v>1.057080623735565</v>
       </c>
       <c r="D11">
-        <v>0.9681893639752029</v>
+        <v>1.060077202008666</v>
       </c>
       <c r="E11">
-        <v>0.9731642899747334</v>
+        <v>1.062257817722204</v>
       </c>
       <c r="F11">
-        <v>0.9718264238419982</v>
+        <v>1.070714692710395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030231665528318</v>
+        <v>1.039310851767806</v>
       </c>
       <c r="J11">
-        <v>0.9877209205868794</v>
+        <v>1.063494169602831</v>
       </c>
       <c r="K11">
-        <v>0.9837371941918637</v>
+        <v>1.063557283767971</v>
       </c>
       <c r="L11">
-        <v>0.9886106762162969</v>
+        <v>1.065730232878404</v>
       </c>
       <c r="M11">
-        <v>0.9872999560390969</v>
+        <v>1.074157700347805</v>
       </c>
       <c r="N11">
-        <v>0.989123597587286</v>
+        <v>1.065004453308153</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9532643521020991</v>
+        <v>1.056616468275974</v>
       </c>
       <c r="D12">
-        <v>0.9652787466631469</v>
+        <v>1.059634172826555</v>
       </c>
       <c r="E12">
-        <v>0.9703861732045258</v>
+        <v>1.061832940234463</v>
       </c>
       <c r="F12">
-        <v>0.9687765472644519</v>
+        <v>1.070242456603882</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029360116948329</v>
+        <v>1.039211500836138</v>
       </c>
       <c r="J12">
-        <v>0.9851873578114401</v>
+        <v>1.063116094584592</v>
       </c>
       <c r="K12">
-        <v>0.9811028175326576</v>
+        <v>1.063159644006111</v>
       </c>
       <c r="L12">
-        <v>0.9861036033659567</v>
+        <v>1.065350570419075</v>
       </c>
       <c r="M12">
-        <v>0.984527425326343</v>
+        <v>1.073730425258274</v>
       </c>
       <c r="N12">
-        <v>0.9865864368621016</v>
+        <v>1.064625841380022</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9539445016466106</v>
+        <v>1.056716066068846</v>
       </c>
       <c r="D13">
-        <v>0.9659068829139644</v>
+        <v>1.059729235742833</v>
       </c>
       <c r="E13">
-        <v>0.9709856884825269</v>
+        <v>1.061924108076568</v>
       </c>
       <c r="F13">
-        <v>0.9694347023264198</v>
+        <v>1.070343782277231</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029548342294806</v>
+        <v>1.039232836598759</v>
       </c>
       <c r="J13">
-        <v>0.9857342214630984</v>
+        <v>1.063197229085879</v>
       </c>
       <c r="K13">
-        <v>0.9816714141783769</v>
+        <v>1.063244974101982</v>
       </c>
       <c r="L13">
-        <v>0.986644713493386</v>
+        <v>1.065432043020814</v>
       </c>
       <c r="M13">
-        <v>0.9851257924181331</v>
+        <v>1.073822109834811</v>
       </c>
       <c r="N13">
-        <v>0.9871340771228717</v>
+        <v>1.064707091101607</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9561568532301579</v>
+        <v>1.057042272187696</v>
       </c>
       <c r="D14">
-        <v>0.9679504668106066</v>
+        <v>1.060040595317511</v>
       </c>
       <c r="E14">
-        <v>0.9729362565225924</v>
+        <v>1.062222710792701</v>
       </c>
       <c r="F14">
-        <v>0.9715760810543899</v>
+        <v>1.070675670760059</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03016019263993</v>
+        <v>1.039302650492937</v>
       </c>
       <c r="J14">
-        <v>0.9875130156267073</v>
+        <v>1.063462934062849</v>
       </c>
       <c r="K14">
-        <v>0.9835210041087012</v>
+        <v>1.06352443049914</v>
       </c>
       <c r="L14">
-        <v>0.9884049290582908</v>
+        <v>1.065698865033462</v>
       </c>
       <c r="M14">
-        <v>0.9870724066712759</v>
+        <v>1.074122396331172</v>
       </c>
       <c r="N14">
-        <v>0.9889153973782231</v>
+        <v>1.064973173410122</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9575077908358722</v>
+        <v>1.057243156817385</v>
       </c>
       <c r="D15">
-        <v>0.9691986622831548</v>
+        <v>1.060232341891756</v>
       </c>
       <c r="E15">
-        <v>0.974127713904625</v>
+        <v>1.062406601744709</v>
       </c>
       <c r="F15">
-        <v>0.9728841090963189</v>
+        <v>1.070880072413284</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030533501150876</v>
+        <v>1.039345593052508</v>
       </c>
       <c r="J15">
-        <v>0.9885991935322566</v>
+        <v>1.063626538197413</v>
       </c>
       <c r="K15">
-        <v>0.9846504913920568</v>
+        <v>1.063696510597101</v>
       </c>
       <c r="L15">
-        <v>0.9894798655104055</v>
+        <v>1.065863164466969</v>
       </c>
       <c r="M15">
-        <v>0.9882612840177947</v>
+        <v>1.074307317579246</v>
       </c>
       <c r="N15">
-        <v>0.9900031177809845</v>
+        <v>1.065137009881322</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.965194459655995</v>
+        <v>1.058410855845552</v>
       </c>
       <c r="D16">
-        <v>0.9763052091888339</v>
+        <v>1.061346995386921</v>
       </c>
       <c r="E16">
-        <v>0.9809122945191449</v>
+        <v>1.063475597013306</v>
       </c>
       <c r="F16">
-        <v>0.9803328386343776</v>
+        <v>1.072068484641882</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032652791522282</v>
+        <v>1.039594440959308</v>
       </c>
       <c r="J16">
-        <v>0.9947789984351698</v>
+        <v>1.064577188422283</v>
       </c>
       <c r="K16">
-        <v>0.9910778973530324</v>
+        <v>1.064696544851485</v>
       </c>
       <c r="L16">
-        <v>0.9955972331445954</v>
+        <v>1.0668179692103</v>
       </c>
       <c r="M16">
-        <v>0.995028754672831</v>
+        <v>1.075382201111053</v>
       </c>
       <c r="N16">
-        <v>0.9961916987156937</v>
+        <v>1.066089010138553</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9698701850524091</v>
+        <v>1.059141987698176</v>
       </c>
       <c r="D17">
-        <v>0.9806317193247506</v>
+        <v>1.062044976557629</v>
       </c>
       <c r="E17">
-        <v>0.9850436694047546</v>
+        <v>1.064144994321554</v>
       </c>
       <c r="F17">
-        <v>0.9848690228917981</v>
+        <v>1.072812822306517</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033937589539513</v>
+        <v>1.039749575708371</v>
       </c>
       <c r="J17">
-        <v>0.998537558167646</v>
+        <v>1.065172114998484</v>
       </c>
       <c r="K17">
-        <v>0.9949880864344927</v>
+        <v>1.065322493518261</v>
       </c>
       <c r="L17">
-        <v>0.9993191196506954</v>
+        <v>1.067415596377774</v>
       </c>
       <c r="M17">
-        <v>0.9991476582847262</v>
+        <v>1.076055196902772</v>
       </c>
       <c r="N17">
-        <v>0.9999555960341028</v>
+        <v>1.066684781578732</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9725483144055426</v>
+        <v>1.059567970625458</v>
       </c>
       <c r="D18">
-        <v>0.9831110588289049</v>
+        <v>1.062451667088986</v>
       </c>
       <c r="E18">
-        <v>0.9874114813753113</v>
+        <v>1.064535032352253</v>
       </c>
       <c r="F18">
-        <v>0.9874690091892998</v>
+        <v>1.073246584434365</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0346718655553</v>
+        <v>1.039839718688348</v>
       </c>
       <c r="J18">
-        <v>1.000690089268292</v>
+        <v>1.065518630120225</v>
       </c>
       <c r="K18">
-        <v>0.9972278277242267</v>
+        <v>1.065687119650825</v>
       </c>
       <c r="L18">
-        <v>1.001451105578741</v>
+        <v>1.067763720721075</v>
       </c>
       <c r="M18">
-        <v>1.001507607321863</v>
+        <v>1.076447299802346</v>
       </c>
       <c r="N18">
-        <v>1.002111183975811</v>
+        <v>1.06703178879169</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.973453454080263</v>
+        <v>1.059713140082322</v>
       </c>
       <c r="D19">
-        <v>0.9839492137553117</v>
+        <v>1.062590265713854</v>
       </c>
       <c r="E19">
-        <v>0.988211982258076</v>
+        <v>1.064667956264165</v>
       </c>
       <c r="F19">
-        <v>0.9883480333318198</v>
+        <v>1.073394419342926</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034919751803294</v>
+        <v>1.039870396853463</v>
       </c>
       <c r="J19">
-        <v>1.001417537935409</v>
+        <v>1.065636699329716</v>
       </c>
       <c r="K19">
-        <v>0.9979848120798903</v>
+        <v>1.065811367039678</v>
       </c>
       <c r="L19">
-        <v>1.002171687744348</v>
+        <v>1.067882344396095</v>
       </c>
       <c r="M19">
-        <v>1.002305330595685</v>
+        <v>1.076580922021395</v>
       </c>
       <c r="N19">
-        <v>1.002839665703475</v>
+        <v>1.067150025673002</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9693736802091685</v>
+        <v>1.059063593349603</v>
       </c>
       <c r="D20">
-        <v>0.9801721667538281</v>
+        <v>1.061970134415241</v>
       </c>
       <c r="E20">
-        <v>0.984604812401551</v>
+        <v>1.064073216883003</v>
       </c>
       <c r="F20">
-        <v>0.9843871481345154</v>
+        <v>1.072733003183043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033801327317711</v>
+        <v>1.039732966891629</v>
       </c>
       <c r="J20">
-        <v>0.9981384717453846</v>
+        <v>1.065108336389543</v>
       </c>
       <c r="K20">
-        <v>0.9945728611390097</v>
+        <v>1.065255384846064</v>
       </c>
       <c r="L20">
-        <v>0.9989238793338684</v>
+        <v>1.067351524501324</v>
       </c>
       <c r="M20">
-        <v>0.9987102010183802</v>
+        <v>1.075983036908957</v>
       </c>
       <c r="N20">
-        <v>0.9995559428633461</v>
+        <v>1.066620912396851</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9555079286755227</v>
+        <v>1.056946233848679</v>
       </c>
       <c r="D21">
-        <v>0.9673509788650135</v>
+        <v>1.059948926955917</v>
       </c>
       <c r="E21">
-        <v>0.9723640390989446</v>
+        <v>1.062134798110526</v>
       </c>
       <c r="F21">
-        <v>0.9709478838351778</v>
+        <v>1.070577955785996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029980789468849</v>
+        <v>1.039282107068456</v>
       </c>
       <c r="J21">
-        <v>0.9869912642453194</v>
+        <v>1.063384712575043</v>
       </c>
       <c r="K21">
-        <v>0.9829784704160339</v>
+        <v>1.063442158882963</v>
       </c>
       <c r="L21">
-        <v>0.9878886054520704</v>
+        <v>1.065620313136081</v>
       </c>
       <c r="M21">
-        <v>0.9865013837990892</v>
+        <v>1.074033989305494</v>
       </c>
       <c r="N21">
-        <v>0.9883929050500281</v>
+        <v>1.064894840838831</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9462677160570314</v>
+        <v>1.055610542377159</v>
       </c>
       <c r="D22">
-        <v>0.9588207133416804</v>
+        <v>1.058674098510497</v>
       </c>
       <c r="E22">
-        <v>0.9642232452448727</v>
+        <v>1.060912209108938</v>
       </c>
       <c r="F22">
-        <v>0.9620109373018922</v>
+        <v>1.069219263347762</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027420734869928</v>
+        <v>1.0389954908183</v>
       </c>
       <c r="J22">
-        <v>0.9795618466782219</v>
+        <v>1.062296411606735</v>
       </c>
       <c r="K22">
-        <v>0.9752545912368497</v>
+        <v>1.062297664331325</v>
       </c>
       <c r="L22">
-        <v>0.9805383993014981</v>
+        <v>1.064527549495797</v>
       </c>
       <c r="M22">
-        <v>0.9783744938240811</v>
+        <v>1.07280440643338</v>
       </c>
       <c r="N22">
-        <v>0.9809529368578191</v>
+        <v>1.063804994358319</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9512200042679725</v>
+        <v>1.056319044519826</v>
       </c>
       <c r="D23">
-        <v>0.9633911027593316</v>
+        <v>1.059350296638557</v>
       </c>
       <c r="E23">
-        <v>0.9685846269270424</v>
+        <v>1.061560696066012</v>
       </c>
       <c r="F23">
-        <v>0.9667988041418507</v>
+        <v>1.06993989257742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028794026582781</v>
+        <v>1.039147731332795</v>
       </c>
       <c r="J23">
-        <v>0.9835436275948176</v>
+        <v>1.062873781821901</v>
       </c>
       <c r="K23">
-        <v>0.9793938530329465</v>
+        <v>1.062904810505747</v>
       </c>
       <c r="L23">
-        <v>0.9844772840589713</v>
+        <v>1.065107256196512</v>
       </c>
       <c r="M23">
-        <v>0.9827291407949654</v>
+        <v>1.073456630667845</v>
       </c>
       <c r="N23">
-        <v>0.9849403723600332</v>
+        <v>1.064383184505415</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9695981804207553</v>
+        <v>1.059099017845147</v>
       </c>
       <c r="D24">
-        <v>0.9803799547697276</v>
+        <v>1.06200395368635</v>
       </c>
       <c r="E24">
-        <v>0.984803241939702</v>
+        <v>1.064105651284651</v>
       </c>
       <c r="F24">
-        <v>0.9846050276597976</v>
+        <v>1.072769071236797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033862944867382</v>
+        <v>1.039740472765369</v>
       </c>
       <c r="J24">
-        <v>0.9983189239889957</v>
+        <v>1.065137156728248</v>
       </c>
       <c r="K24">
-        <v>0.9947606096313976</v>
+        <v>1.065285709846482</v>
       </c>
       <c r="L24">
-        <v>0.9991025910870286</v>
+        <v>1.067380477249906</v>
       </c>
       <c r="M24">
-        <v>0.9989079998856942</v>
+        <v>1.076015644276092</v>
       </c>
       <c r="N24">
-        <v>0.999736651369841</v>
+        <v>1.066649773663742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9890196798460196</v>
+        <v>1.062306508251329</v>
       </c>
       <c r="D25">
-        <v>0.9983790902022103</v>
+        <v>1.065066573924347</v>
       </c>
       <c r="E25">
-        <v>1.001997384722454</v>
+        <v>1.067042909553867</v>
       </c>
       <c r="F25">
-        <v>1.003488742718843</v>
+        <v>1.076036658645669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03915800960131</v>
+        <v>1.040414821828592</v>
       </c>
       <c r="J25">
-        <v>1.013922311578709</v>
+        <v>1.067744303385439</v>
       </c>
       <c r="K25">
-        <v>1.011002620928971</v>
+        <v>1.068029880683072</v>
       </c>
       <c r="L25">
-        <v>1.014564772795303</v>
+        <v>1.070000383314932</v>
       </c>
       <c r="M25">
-        <v>1.016033140790024</v>
+        <v>1.078967882298434</v>
       </c>
       <c r="N25">
-        <v>1.015362197559665</v>
+        <v>1.06926062276823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064850662639623</v>
+        <v>1.003288479147765</v>
       </c>
       <c r="D2">
-        <v>1.067496491402062</v>
+        <v>1.011631527382019</v>
       </c>
       <c r="E2">
-        <v>1.069373432351804</v>
+        <v>1.014664124295089</v>
       </c>
       <c r="F2">
-        <v>1.078631132388632</v>
+        <v>1.017407740274482</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040942000987361</v>
+        <v>1.042994078881109</v>
       </c>
       <c r="J2">
-        <v>1.069808788005184</v>
+        <v>1.025371275285616</v>
       </c>
       <c r="K2">
-        <v>1.070204197677716</v>
+        <v>1.022931160469157</v>
       </c>
       <c r="L2">
-        <v>1.072076112540631</v>
+        <v>1.025922875941213</v>
       </c>
       <c r="M2">
-        <v>1.081309298727051</v>
+        <v>1.028629769833173</v>
       </c>
       <c r="N2">
-        <v>1.071328039192935</v>
+        <v>1.02682742010825</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066690141083253</v>
+        <v>1.013059980331976</v>
       </c>
       <c r="D3">
-        <v>1.06925374974298</v>
+        <v>1.020720531413317</v>
       </c>
       <c r="E3">
-        <v>1.071058848150994</v>
+        <v>1.023354803571817</v>
       </c>
       <c r="F3">
-        <v>1.080508516253083</v>
+        <v>1.026962896980267</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041318684544749</v>
+        <v>1.045587744853927</v>
       </c>
       <c r="J3">
-        <v>1.071299427179064</v>
+        <v>1.03320083982043</v>
       </c>
       <c r="K3">
-        <v>1.071774910914318</v>
+        <v>1.031094979802279</v>
       </c>
       <c r="L3">
-        <v>1.073575531931038</v>
+        <v>1.033697327859519</v>
       </c>
       <c r="M3">
-        <v>1.083002023489604</v>
+        <v>1.037262025386812</v>
       </c>
       <c r="N3">
-        <v>1.07282079524542</v>
+        <v>1.034668103522768</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067876923370908</v>
+        <v>1.0191423685468</v>
       </c>
       <c r="D4">
-        <v>1.070387654884151</v>
+        <v>1.026383531794384</v>
       </c>
       <c r="E4">
-        <v>1.072146411900874</v>
+        <v>1.028771001089682</v>
       </c>
       <c r="F4">
-        <v>1.081720454628794</v>
+        <v>1.032920559425082</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041559635488666</v>
+        <v>1.047186196454549</v>
       </c>
       <c r="J4">
-        <v>1.072260206516456</v>
+        <v>1.03806876982174</v>
       </c>
       <c r="K4">
-        <v>1.07278765814295</v>
+        <v>1.036173626714698</v>
       </c>
       <c r="L4">
-        <v>1.074542276373316</v>
+        <v>1.038534156481604</v>
       </c>
       <c r="M4">
-        <v>1.084094042076517</v>
+        <v>1.042637257018971</v>
       </c>
       <c r="N4">
-        <v>1.073782938999674</v>
+        <v>1.039542946543039</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068375030861913</v>
+        <v>1.021646007018401</v>
       </c>
       <c r="D5">
-        <v>1.070863608954309</v>
+        <v>1.028715741499757</v>
       </c>
       <c r="E5">
-        <v>1.072602918080968</v>
+        <v>1.031001876765838</v>
       </c>
       <c r="F5">
-        <v>1.082229287562106</v>
+        <v>1.035375142580055</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041660268209831</v>
+        <v>1.047840227372891</v>
       </c>
       <c r="J5">
-        <v>1.072663231883842</v>
+        <v>1.040071062376698</v>
       </c>
       <c r="K5">
-        <v>1.073212568360176</v>
+        <v>1.038263287419752</v>
       </c>
       <c r="L5">
-        <v>1.07494787722822</v>
+        <v>1.040524406054121</v>
       </c>
       <c r="M5">
-        <v>1.08455235584127</v>
+        <v>1.044850193728417</v>
       </c>
       <c r="N5">
-        <v>1.07418653670931</v>
+        <v>1.041548082583091</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068458617986612</v>
+        <v>1.022063359938046</v>
       </c>
       <c r="D6">
-        <v>1.070943480839869</v>
+        <v>1.029104585231114</v>
       </c>
       <c r="E6">
-        <v>1.072679526552387</v>
+        <v>1.031373842786335</v>
       </c>
       <c r="F6">
-        <v>1.08231468430127</v>
+        <v>1.035784449729305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041677126134903</v>
+        <v>1.047949020077094</v>
       </c>
       <c r="J6">
-        <v>1.07273085007296</v>
+        <v>1.040404753979253</v>
       </c>
       <c r="K6">
-        <v>1.073283863329125</v>
+        <v>1.03861158026811</v>
       </c>
       <c r="L6">
-        <v>1.075015931821617</v>
+        <v>1.040856134506775</v>
       </c>
       <c r="M6">
-        <v>1.084629264003469</v>
+        <v>1.045219106741013</v>
       </c>
       <c r="N6">
-        <v>1.074254250924011</v>
+        <v>1.041882248065997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067883582288373</v>
+        <v>1.019176026952858</v>
       </c>
       <c r="D7">
-        <v>1.070394017489546</v>
+        <v>1.02641488092084</v>
       </c>
       <c r="E7">
-        <v>1.07215251450999</v>
+        <v>1.028800986912788</v>
       </c>
       <c r="F7">
-        <v>1.081727256272372</v>
+        <v>1.032953549409734</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041560982747159</v>
+        <v>1.047195004783523</v>
       </c>
       <c r="J7">
-        <v>1.072265595223345</v>
+        <v>1.038095694091941</v>
       </c>
       <c r="K7">
-        <v>1.07279333912801</v>
+        <v>1.036201723041865</v>
       </c>
       <c r="L7">
-        <v>1.07454769922798</v>
+        <v>1.038560915851141</v>
       </c>
       <c r="M7">
-        <v>1.084100169094303</v>
+        <v>1.042667005908809</v>
       </c>
       <c r="N7">
-        <v>1.073788335359145</v>
+        <v>1.039569909048793</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065473055183416</v>
+        <v>1.006643247680889</v>
       </c>
       <c r="D8">
-        <v>1.068091029057123</v>
+        <v>1.014750755793452</v>
       </c>
       <c r="E8">
-        <v>1.069943659858505</v>
+        <v>1.017646345394415</v>
       </c>
       <c r="F8">
-        <v>1.079266204637007</v>
+        <v>1.020686056582718</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041069883072758</v>
+        <v>1.043887884701119</v>
       </c>
       <c r="J8">
-        <v>1.070313344791904</v>
+        <v>1.028060482952968</v>
       </c>
       <c r="K8">
-        <v>1.070735784175842</v>
+        <v>1.025734558095587</v>
       </c>
       <c r="L8">
-        <v>1.072583577796671</v>
+        <v>1.028592475454916</v>
       </c>
       <c r="M8">
-        <v>1.081882053481569</v>
+        <v>1.031592926964838</v>
       </c>
       <c r="N8">
-        <v>1.071833312508165</v>
+        <v>1.029520446758947</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.061197903181685</v>
+        <v>0.9825006944815513</v>
       </c>
       <c r="D9">
-        <v>1.064007933972077</v>
+        <v>0.9923324341889036</v>
       </c>
       <c r="E9">
-        <v>1.066027591769108</v>
+        <v>0.9962199220029518</v>
       </c>
       <c r="F9">
-        <v>1.074906869038383</v>
+        <v>0.9971424891072481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040182941664778</v>
+        <v>1.037389096266383</v>
       </c>
       <c r="J9">
-        <v>1.066843734370953</v>
+        <v>1.008686900836333</v>
       </c>
       <c r="K9">
-        <v>1.067081773952819</v>
+        <v>1.005551149458049</v>
       </c>
       <c r="L9">
-        <v>1.069095229634702</v>
+        <v>1.009374627508156</v>
       </c>
       <c r="M9">
-        <v>1.077947541161576</v>
+        <v>1.010282098188933</v>
       </c>
       <c r="N9">
-        <v>1.068358774842446</v>
+        <v>1.010119351933526</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058328166271141</v>
+        <v>0.9646591678821257</v>
       </c>
       <c r="D10">
-        <v>1.061268058135115</v>
+        <v>0.975810072396763</v>
       </c>
       <c r="E10">
-        <v>1.063399892739871</v>
+        <v>0.9804395316907893</v>
       </c>
       <c r="F10">
-        <v>1.071984313050985</v>
+        <v>0.9798137734226517</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039576862496118</v>
+        <v>1.032505484804979</v>
       </c>
       <c r="J10">
-        <v>1.064509888528414</v>
+        <v>0.9943486744960545</v>
       </c>
       <c r="K10">
-        <v>1.06462574136022</v>
+        <v>0.990630264410689</v>
       </c>
       <c r="L10">
-        <v>1.066750368730747</v>
+        <v>0.9951711717124203</v>
       </c>
       <c r="M10">
-        <v>1.075306085550962</v>
+        <v>0.9945573189334076</v>
       </c>
       <c r="N10">
-        <v>1.066021614671115</v>
+        <v>0.9957607636672259</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.057080623735565</v>
+        <v>0.9564154344653897</v>
       </c>
       <c r="D11">
-        <v>1.060077202008666</v>
+        <v>0.9681893639751989</v>
       </c>
       <c r="E11">
-        <v>1.062257817722204</v>
+        <v>0.9731642899747298</v>
       </c>
       <c r="F11">
-        <v>1.070714692710395</v>
+        <v>0.9718264238419942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039310851767806</v>
+        <v>1.030231665528317</v>
       </c>
       <c r="J11">
-        <v>1.063494169602831</v>
+        <v>0.9877209205868757</v>
       </c>
       <c r="K11">
-        <v>1.063557283767971</v>
+        <v>0.9837371941918598</v>
       </c>
       <c r="L11">
-        <v>1.065730232878404</v>
+        <v>0.9886106762162934</v>
       </c>
       <c r="M11">
-        <v>1.074157700347805</v>
+        <v>0.9872999560390932</v>
       </c>
       <c r="N11">
-        <v>1.065004453308153</v>
+        <v>0.9891235975872823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056616468275974</v>
+        <v>0.9532643521020984</v>
       </c>
       <c r="D12">
-        <v>1.059634172826555</v>
+        <v>0.9652787466631461</v>
       </c>
       <c r="E12">
-        <v>1.061832940234463</v>
+        <v>0.970386173204525</v>
       </c>
       <c r="F12">
-        <v>1.070242456603882</v>
+        <v>0.9687765472644505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039211500836138</v>
+        <v>1.029360116948329</v>
       </c>
       <c r="J12">
-        <v>1.063116094584592</v>
+        <v>0.9851873578114393</v>
       </c>
       <c r="K12">
-        <v>1.063159644006111</v>
+        <v>0.9811028175326567</v>
       </c>
       <c r="L12">
-        <v>1.065350570419075</v>
+        <v>0.9861036033659558</v>
       </c>
       <c r="M12">
-        <v>1.073730425258274</v>
+        <v>0.9845274253263417</v>
       </c>
       <c r="N12">
-        <v>1.064625841380022</v>
+        <v>0.9865864368621008</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056716066068846</v>
+        <v>0.9539445016466109</v>
       </c>
       <c r="D13">
-        <v>1.059729235742833</v>
+        <v>0.9659068829139649</v>
       </c>
       <c r="E13">
-        <v>1.061924108076568</v>
+        <v>0.9709856884825271</v>
       </c>
       <c r="F13">
-        <v>1.070343782277231</v>
+        <v>0.9694347023264203</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039232836598759</v>
+        <v>1.029548342294806</v>
       </c>
       <c r="J13">
-        <v>1.063197229085879</v>
+        <v>0.9857342214630987</v>
       </c>
       <c r="K13">
-        <v>1.063244974101982</v>
+        <v>0.9816714141783773</v>
       </c>
       <c r="L13">
-        <v>1.065432043020814</v>
+        <v>0.9866447134933862</v>
       </c>
       <c r="M13">
-        <v>1.073822109834811</v>
+        <v>0.9851257924181338</v>
       </c>
       <c r="N13">
-        <v>1.064707091101607</v>
+        <v>0.9871340771228718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.057042272187696</v>
+        <v>0.95615685323016</v>
       </c>
       <c r="D14">
-        <v>1.060040595317511</v>
+        <v>0.9679504668106087</v>
       </c>
       <c r="E14">
-        <v>1.062222710792701</v>
+        <v>0.9729362565225942</v>
       </c>
       <c r="F14">
-        <v>1.070675670760059</v>
+        <v>0.9715760810543919</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039302650492937</v>
+        <v>1.030160192639931</v>
       </c>
       <c r="J14">
-        <v>1.063462934062849</v>
+        <v>0.9875130156267093</v>
       </c>
       <c r="K14">
-        <v>1.06352443049914</v>
+        <v>0.983521004108703</v>
       </c>
       <c r="L14">
-        <v>1.065698865033462</v>
+        <v>0.9884049290582926</v>
       </c>
       <c r="M14">
-        <v>1.074122396331172</v>
+        <v>0.9870724066712776</v>
       </c>
       <c r="N14">
-        <v>1.064973173410122</v>
+        <v>0.9889153973782254</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057243156817385</v>
+        <v>0.9575077908358736</v>
       </c>
       <c r="D15">
-        <v>1.060232341891756</v>
+        <v>0.969198662283156</v>
       </c>
       <c r="E15">
-        <v>1.062406601744709</v>
+        <v>0.9741277139046259</v>
       </c>
       <c r="F15">
-        <v>1.070880072413284</v>
+        <v>0.9728841090963203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039345593052508</v>
+        <v>1.030533501150876</v>
       </c>
       <c r="J15">
-        <v>1.063626538197413</v>
+        <v>0.9885991935322574</v>
       </c>
       <c r="K15">
-        <v>1.063696510597101</v>
+        <v>0.984650491392058</v>
       </c>
       <c r="L15">
-        <v>1.065863164466969</v>
+        <v>0.9894798655104066</v>
       </c>
       <c r="M15">
-        <v>1.074307317579246</v>
+        <v>0.9882612840177959</v>
       </c>
       <c r="N15">
-        <v>1.065137009881322</v>
+        <v>0.9900031177809859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058410855845552</v>
+        <v>0.9651944596559947</v>
       </c>
       <c r="D16">
-        <v>1.061346995386921</v>
+        <v>0.9763052091888338</v>
       </c>
       <c r="E16">
-        <v>1.063475597013306</v>
+        <v>0.9809122945191444</v>
       </c>
       <c r="F16">
-        <v>1.072068484641882</v>
+        <v>0.9803328386343767</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039594440959308</v>
+        <v>1.032652791522282</v>
       </c>
       <c r="J16">
-        <v>1.064577188422283</v>
+        <v>0.9947789984351694</v>
       </c>
       <c r="K16">
-        <v>1.064696544851485</v>
+        <v>0.9910778973530322</v>
       </c>
       <c r="L16">
-        <v>1.0668179692103</v>
+        <v>0.9955972331445949</v>
       </c>
       <c r="M16">
-        <v>1.075382201111053</v>
+        <v>0.9950287546728301</v>
       </c>
       <c r="N16">
-        <v>1.066089010138553</v>
+        <v>0.9961916987156934</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.059141987698176</v>
+        <v>0.9698701850524097</v>
       </c>
       <c r="D17">
-        <v>1.062044976557629</v>
+        <v>0.9806317193247515</v>
       </c>
       <c r="E17">
-        <v>1.064144994321554</v>
+        <v>0.9850436694047552</v>
       </c>
       <c r="F17">
-        <v>1.072812822306517</v>
+        <v>0.9848690228917987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039749575708371</v>
+        <v>1.033937589539513</v>
       </c>
       <c r="J17">
-        <v>1.065172114998484</v>
+        <v>0.9985375581676468</v>
       </c>
       <c r="K17">
-        <v>1.065322493518261</v>
+        <v>0.9949880864344933</v>
       </c>
       <c r="L17">
-        <v>1.067415596377774</v>
+        <v>0.9993191196506959</v>
       </c>
       <c r="M17">
-        <v>1.076055196902772</v>
+        <v>0.9991476582847266</v>
       </c>
       <c r="N17">
-        <v>1.066684781578732</v>
+        <v>0.9999555960341039</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059567970625458</v>
+        <v>0.9725483144055426</v>
       </c>
       <c r="D18">
-        <v>1.062451667088986</v>
+        <v>0.983111058828905</v>
       </c>
       <c r="E18">
-        <v>1.064535032352253</v>
+        <v>0.9874114813753112</v>
       </c>
       <c r="F18">
-        <v>1.073246584434365</v>
+        <v>0.9874690091892998</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039839718688348</v>
+        <v>1.0346718655553</v>
       </c>
       <c r="J18">
-        <v>1.065518630120225</v>
+        <v>1.000690089268292</v>
       </c>
       <c r="K18">
-        <v>1.065687119650825</v>
+        <v>0.9972278277242267</v>
       </c>
       <c r="L18">
-        <v>1.067763720721075</v>
+        <v>1.001451105578741</v>
       </c>
       <c r="M18">
-        <v>1.076447299802346</v>
+        <v>1.001507607321863</v>
       </c>
       <c r="N18">
-        <v>1.06703178879169</v>
+        <v>1.002111183975811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059713140082322</v>
+        <v>0.9734534540802634</v>
       </c>
       <c r="D19">
-        <v>1.062590265713854</v>
+        <v>0.9839492137553125</v>
       </c>
       <c r="E19">
-        <v>1.064667956264165</v>
+        <v>0.9882119822580768</v>
       </c>
       <c r="F19">
-        <v>1.073394419342926</v>
+        <v>0.9883480333318201</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039870396853463</v>
+        <v>1.034919751803294</v>
       </c>
       <c r="J19">
-        <v>1.065636699329716</v>
+        <v>1.00141753793541</v>
       </c>
       <c r="K19">
-        <v>1.065811367039678</v>
+        <v>0.997984812079891</v>
       </c>
       <c r="L19">
-        <v>1.067882344396095</v>
+        <v>1.002171687744349</v>
       </c>
       <c r="M19">
-        <v>1.076580922021395</v>
+        <v>1.002305330595685</v>
       </c>
       <c r="N19">
-        <v>1.067150025673002</v>
+        <v>1.002839665703475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.059063593349603</v>
+        <v>0.969373680209171</v>
       </c>
       <c r="D20">
-        <v>1.061970134415241</v>
+        <v>0.9801721667538302</v>
       </c>
       <c r="E20">
-        <v>1.064073216883003</v>
+        <v>0.9846048124015528</v>
       </c>
       <c r="F20">
-        <v>1.072733003183043</v>
+        <v>0.9843871481345173</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039732966891629</v>
+        <v>1.033801327317712</v>
       </c>
       <c r="J20">
-        <v>1.065108336389543</v>
+        <v>0.9981384717453868</v>
       </c>
       <c r="K20">
-        <v>1.065255384846064</v>
+        <v>0.9945728611390118</v>
       </c>
       <c r="L20">
-        <v>1.067351524501324</v>
+        <v>0.9989238793338703</v>
       </c>
       <c r="M20">
-        <v>1.075983036908957</v>
+        <v>0.9987102010183819</v>
       </c>
       <c r="N20">
-        <v>1.066620912396851</v>
+        <v>0.9995559428633483</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056946233848679</v>
+        <v>0.9555079286755239</v>
       </c>
       <c r="D21">
-        <v>1.059948926955917</v>
+        <v>0.9673509788650148</v>
       </c>
       <c r="E21">
-        <v>1.062134798110526</v>
+        <v>0.9723640390989461</v>
       </c>
       <c r="F21">
-        <v>1.070577955785996</v>
+        <v>0.970947883835179</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039282107068456</v>
+        <v>1.029980789468849</v>
       </c>
       <c r="J21">
-        <v>1.063384712575043</v>
+        <v>0.9869912642453206</v>
       </c>
       <c r="K21">
-        <v>1.063442158882963</v>
+        <v>0.9829784704160351</v>
       </c>
       <c r="L21">
-        <v>1.065620313136081</v>
+        <v>0.9878886054520716</v>
       </c>
       <c r="M21">
-        <v>1.074033989305494</v>
+        <v>0.9865013837990906</v>
       </c>
       <c r="N21">
-        <v>1.064894840838831</v>
+        <v>0.9883929050500294</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055610542377159</v>
+        <v>0.9462677160570303</v>
       </c>
       <c r="D22">
-        <v>1.058674098510497</v>
+        <v>0.9588207133416793</v>
       </c>
       <c r="E22">
-        <v>1.060912209108938</v>
+        <v>0.9642232452448715</v>
       </c>
       <c r="F22">
-        <v>1.069219263347762</v>
+        <v>0.9620109373018914</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0389954908183</v>
+        <v>1.027420734869928</v>
       </c>
       <c r="J22">
-        <v>1.062296411606735</v>
+        <v>0.9795618466782208</v>
       </c>
       <c r="K22">
-        <v>1.062297664331325</v>
+        <v>0.9752545912368485</v>
       </c>
       <c r="L22">
-        <v>1.064527549495797</v>
+        <v>0.9805383993014971</v>
       </c>
       <c r="M22">
-        <v>1.07280440643338</v>
+        <v>0.9783744938240805</v>
       </c>
       <c r="N22">
-        <v>1.063804994358319</v>
+        <v>0.9809529368578181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.056319044519826</v>
+        <v>0.9512200042679734</v>
       </c>
       <c r="D23">
-        <v>1.059350296638557</v>
+        <v>0.9633911027593325</v>
       </c>
       <c r="E23">
-        <v>1.061560696066012</v>
+        <v>0.9685846269270428</v>
       </c>
       <c r="F23">
-        <v>1.06993989257742</v>
+        <v>0.966798804141851</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039147731332795</v>
+        <v>1.028794026582781</v>
       </c>
       <c r="J23">
-        <v>1.062873781821901</v>
+        <v>0.9835436275948184</v>
       </c>
       <c r="K23">
-        <v>1.062904810505747</v>
+        <v>0.9793938530329473</v>
       </c>
       <c r="L23">
-        <v>1.065107256196512</v>
+        <v>0.9844772840589717</v>
       </c>
       <c r="M23">
-        <v>1.073456630667845</v>
+        <v>0.9827291407949659</v>
       </c>
       <c r="N23">
-        <v>1.064383184505415</v>
+        <v>0.984940372360034</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.059099017845147</v>
+        <v>0.9695981804207567</v>
       </c>
       <c r="D24">
-        <v>1.06200395368635</v>
+        <v>0.9803799547697286</v>
       </c>
       <c r="E24">
-        <v>1.064105651284651</v>
+        <v>0.9848032419397033</v>
       </c>
       <c r="F24">
-        <v>1.072769071236797</v>
+        <v>0.9846050276597987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039740472765369</v>
+        <v>1.033862944867383</v>
       </c>
       <c r="J24">
-        <v>1.065137156728248</v>
+        <v>0.9983189239889969</v>
       </c>
       <c r="K24">
-        <v>1.065285709846482</v>
+        <v>0.9947606096313988</v>
       </c>
       <c r="L24">
-        <v>1.067380477249906</v>
+        <v>0.9991025910870295</v>
       </c>
       <c r="M24">
-        <v>1.076015644276092</v>
+        <v>0.9989079998856953</v>
       </c>
       <c r="N24">
-        <v>1.066649773663742</v>
+        <v>0.9997366513698422</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062306508251329</v>
+        <v>0.9890196798460219</v>
       </c>
       <c r="D25">
-        <v>1.065066573924347</v>
+        <v>0.9983790902022124</v>
       </c>
       <c r="E25">
-        <v>1.067042909553867</v>
+        <v>1.001997384722456</v>
       </c>
       <c r="F25">
-        <v>1.076036658645669</v>
+        <v>1.003488742718845</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040414821828592</v>
+        <v>1.03915800960131</v>
       </c>
       <c r="J25">
-        <v>1.067744303385439</v>
+        <v>1.013922311578711</v>
       </c>
       <c r="K25">
-        <v>1.068029880683072</v>
+        <v>1.011002620928974</v>
       </c>
       <c r="L25">
-        <v>1.070000383314932</v>
+        <v>1.014564772795305</v>
       </c>
       <c r="M25">
-        <v>1.078967882298434</v>
+        <v>1.016033140790026</v>
       </c>
       <c r="N25">
-        <v>1.06926062276823</v>
+        <v>1.015362197559668</v>
       </c>
     </row>
   </sheetData>
